--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/ProprietaryDataFiles/Syndication_InvalidFile2.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/ProprietaryDataFiles/Syndication_InvalidFile2.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleksandr\Desktop\data files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\achyzh\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\ProprietaryDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBECA62-0B90-46D1-A2BF-F28551ABB41B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Barter Inventory" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -186,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -675,29 +683,29 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="28">
     <dxf>
@@ -1292,12 +1300,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1357,19 +1365,19 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="35" t="str">
+      <c r="D2" s="36"/>
+      <c r="E2" s="37" t="str">
         <f>IF(COUNTA($E$3:$E10) &gt; 0, "Errors", "")</f>
         <v>Errors</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1394,18 +1402,18 @@
       <c r="B3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1430,18 +1438,18 @@
       <c r="B4" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1466,18 +1474,18 @@
       <c r="B5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="32"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1502,18 +1510,18 @@
       <c r="B6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1538,16 +1546,16 @@
       <c r="B7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="33">
         <v>25.123000000000001</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1572,16 +1580,16 @@
       <c r="B8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1606,16 +1614,16 @@
       <c r="B9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1640,18 +1648,18 @@
       <c r="B10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="32" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1825,7 +1833,9 @@
       <c r="A16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="18">
+        <v>1</v>
+      </c>
       <c r="C16" s="18">
         <v>0.62</v>
       </c>
@@ -1869,7 +1879,9 @@
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
       <c r="C17" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1913,7 +1925,9 @@
       <c r="A18" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
       <c r="C18" s="18">
         <v>1.58</v>
       </c>
@@ -1957,7 +1971,9 @@
       <c r="A19" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="18">
+        <v>1</v>
+      </c>
       <c r="C19" s="18">
         <v>0.56999999999999995</v>
       </c>
@@ -2001,7 +2017,9 @@
       <c r="A20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="18">
+        <v>1</v>
+      </c>
       <c r="C20" s="18">
         <v>1</v>
       </c>
@@ -2045,7 +2063,9 @@
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="18">
+        <v>1</v>
+      </c>
       <c r="C21" s="18">
         <v>0.78</v>
       </c>
@@ -2089,7 +2109,9 @@
       <c r="A22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="18">
+        <v>1</v>
+      </c>
       <c r="C22" s="18">
         <v>0.78</v>
       </c>
@@ -2133,7 +2155,9 @@
       <c r="A23" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="18">
+        <v>1</v>
+      </c>
       <c r="C23" s="18">
         <v>6.31</v>
       </c>
@@ -2177,7 +2201,9 @@
       <c r="A24" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="18">
+        <v>1</v>
+      </c>
       <c r="C24" s="18">
         <v>3.34</v>
       </c>
@@ -2221,7 +2247,9 @@
       <c r="A25" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="18">
+        <v>1</v>
+      </c>
       <c r="C25" s="18">
         <v>1.44</v>
       </c>
@@ -2265,7 +2293,9 @@
       <c r="A26" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="18">
+        <v>1</v>
+      </c>
       <c r="C26" s="18">
         <v>1.42</v>
       </c>
@@ -2309,7 +2339,9 @@
       <c r="A27" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="18">
+        <v>1</v>
+      </c>
       <c r="C27" s="18">
         <v>0.76</v>
       </c>
@@ -2353,7 +2385,9 @@
       <c r="A28" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="18">
+        <v>1</v>
+      </c>
       <c r="C28" s="18">
         <v>2.0299999999999998</v>
       </c>
@@ -2397,7 +2431,9 @@
       <c r="A29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="18">
+        <v>1</v>
+      </c>
       <c r="C29" s="18">
         <v>1.39</v>
       </c>
@@ -2441,7 +2477,9 @@
       <c r="A30" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="18">
+        <v>1</v>
+      </c>
       <c r="C30" s="18">
         <v>2.12</v>
       </c>
@@ -2485,7 +2523,9 @@
       <c r="A31" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="18">
+        <v>1</v>
+      </c>
       <c r="C31" s="18">
         <v>2.29</v>
       </c>
@@ -2529,7 +2569,9 @@
       <c r="A32" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="18"/>
+      <c r="B32" s="18">
+        <v>1</v>
+      </c>
       <c r="C32" s="18">
         <v>0.71</v>
       </c>
@@ -2573,7 +2615,9 @@
       <c r="A33" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="18"/>
+      <c r="B33" s="18">
+        <v>1</v>
+      </c>
       <c r="C33" s="18">
         <v>1</v>
       </c>
@@ -2617,7 +2661,9 @@
       <c r="A34" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="18"/>
+      <c r="B34" s="18">
+        <v>1</v>
+      </c>
       <c r="C34" s="18">
         <v>1.1499999999999999</v>
       </c>
@@ -2661,7 +2707,9 @@
       <c r="A35" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="18"/>
+      <c r="B35" s="18">
+        <v>1</v>
+      </c>
       <c r="C35" s="18">
         <v>0.46</v>
       </c>
@@ -29723,13 +29771,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:J3"/>
@@ -29741,6 +29782,13 @@
     <mergeCell ref="E5:J5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <conditionalFormatting sqref="B9">
     <cfRule type="expression" dxfId="27" priority="1">
@@ -29882,14 +29930,13 @@
       <formula>AND(ROW() &gt; 17, $K12&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Unknown Inventory Source - The inventory source you entered is unknown.  _x000a__x000a_Please select an existing source from the dropdown or contact support to add the inventory source." sqref="B3">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Unknown Inventory Source - The inventory source you entered is unknown.  _x000a__x000a_Please select an existing source from the dropdown or contact support to add the inventory source." sqref="B3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"20th Century Fox (Twentieth Century),CBS Synd,NBCU Syn,WB Syn"</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="B4"/>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Unknown Daypart Code - The daypart code you entered is unknown.  _x000a__x000a_Please select an existing daypart code from the dropdown or contact support to add the daypart code." sqref="B6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Unknown Playback Type - The playback type you entered is unknown.  _x000a__x000a_Please select an existing playback type from the dropdown or contact support to add the playback type." sqref="B10"/>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="B4:B5" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Unknown Daypart Code - The daypart code you entered is unknown.  _x000a__x000a_Please select an existing daypart code from the dropdown or contact support to add the daypart code." sqref="B6" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Unknown Playback Type - The playback type you entered is unknown.  _x000a__x000a_Please select an existing playback type from the dropdown or contact support to add the playback type." sqref="B10" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/ProprietaryDataFiles/Syndication_InvalidFile2.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/ProprietaryDataFiles/Syndication_InvalidFile2.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\achyzh\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\ProprietaryDataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\ProprietaryDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBECA62-0B90-46D1-A2BF-F28551ABB41B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{54B09DB4-32D7-432A-A778-20C872BC8B98}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Barter Inventory" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -96,12 +89,6 @@
   </si>
   <si>
     <t>Avg HH CPM</t>
-  </si>
-  <si>
-    <t>P 25-54 Avg Rtg</t>
-  </si>
-  <si>
-    <t>P 25-54 Avg Imps (000)</t>
   </si>
   <si>
     <t>P 25-54 VPVH</t>
@@ -189,6 +176,12 @@
   </si>
   <si>
     <t>CBS Synd</t>
+  </si>
+  <si>
+    <t>Avg P 25-54 Rtg</t>
+  </si>
+  <si>
+    <t>Avg P 25-54 Imps (000)</t>
   </si>
 </sst>
 </file>
@@ -683,26 +676,26 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1305,7 +1298,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1365,19 +1358,19 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37" t="str">
+      <c r="D2" s="29"/>
+      <c r="E2" s="35" t="str">
         <f>IF(COUNTA($E$3:$E10) &gt; 0, "Errors", "")</f>
         <v>Errors</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1400,20 +1393,20 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1436,20 +1429,20 @@
         <v>6</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1472,20 +1465,20 @@
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="30" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1508,20 +1501,20 @@
         <v>9</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="30" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="34"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1544,18 +1537,18 @@
         <v>11</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="30">
         <v>25.123000000000001</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="34"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1578,18 +1571,18 @@
         <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="32"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1612,18 +1605,18 @@
         <v>14</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="32"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1646,20 +1639,20 @@
         <v>15</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30" t="s">
+      <c r="D10" s="37"/>
+      <c r="E10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1808,16 +1801,16 @@
         <v>22</v>
       </c>
       <c r="F15" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="I15" s="23" t="s">
         <v>24</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>26</v>
       </c>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -1831,7 +1824,7 @@
     </row>
     <row r="16" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="18">
         <v>1</v>
@@ -1877,7 +1870,7 @@
     </row>
     <row r="17" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -1923,7 +1916,7 @@
     </row>
     <row r="18" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="18">
         <v>1</v>
@@ -1969,7 +1962,7 @@
     </row>
     <row r="19" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="18">
         <v>1</v>
@@ -2015,7 +2008,7 @@
     </row>
     <row r="20" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="18">
         <v>1</v>
@@ -2061,7 +2054,7 @@
     </row>
     <row r="21" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" s="18">
         <v>1</v>
@@ -2107,7 +2100,7 @@
     </row>
     <row r="22" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" s="18">
         <v>1</v>
@@ -2153,7 +2146,7 @@
     </row>
     <row r="23" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" s="18">
         <v>1</v>
@@ -2199,7 +2192,7 @@
     </row>
     <row r="24" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" s="18">
         <v>1</v>
@@ -2245,7 +2238,7 @@
     </row>
     <row r="25" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" s="18">
         <v>1</v>
@@ -2291,7 +2284,7 @@
     </row>
     <row r="26" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="18">
         <v>1</v>
@@ -2337,7 +2330,7 @@
     </row>
     <row r="27" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" s="18">
         <v>1</v>
@@ -2383,7 +2376,7 @@
     </row>
     <row r="28" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" s="18">
         <v>1</v>
@@ -2429,7 +2422,7 @@
     </row>
     <row r="29" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" s="18">
         <v>1</v>
@@ -2475,7 +2468,7 @@
     </row>
     <row r="30" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30" s="18">
         <v>1</v>
@@ -2521,7 +2514,7 @@
     </row>
     <row r="31" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="18">
         <v>1</v>
@@ -2567,7 +2560,7 @@
     </row>
     <row r="32" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32" s="18">
         <v>1</v>
@@ -2613,7 +2606,7 @@
     </row>
     <row r="33" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="18">
         <v>1</v>
@@ -2659,7 +2652,7 @@
     </row>
     <row r="34" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34" s="18">
         <v>1</v>
@@ -2705,7 +2698,7 @@
     </row>
     <row r="35" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B35" s="18">
         <v>1</v>
@@ -29771,6 +29764,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:J3"/>
@@ -29782,13 +29782,6 @@
     <mergeCell ref="E5:J5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <conditionalFormatting sqref="B9">
     <cfRule type="expression" dxfId="27" priority="1">
